--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_218.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_218.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32530-d78419-Reviews-DoubleTree_by_Hilton_Hotel_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>344</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-DoubleTree-By-Hilton-Irvine-Spectrum.h280986.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_218.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_218.xlsx
@@ -5638,7 +5638,7 @@
         <v>38489</v>
       </c>
       <c r="B2" t="n">
-        <v>140209</v>
+        <v>171348</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -5772,7 +5772,7 @@
         <v>38489</v>
       </c>
       <c r="B4" t="n">
-        <v>140210</v>
+        <v>171349</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -5977,7 +5977,7 @@
         <v>38489</v>
       </c>
       <c r="B7" t="n">
-        <v>140211</v>
+        <v>171350</v>
       </c>
       <c r="C7" t="s">
         <v>93</v>
@@ -6042,7 +6042,7 @@
         <v>38489</v>
       </c>
       <c r="B8" t="n">
-        <v>140212</v>
+        <v>171351</v>
       </c>
       <c r="C8" t="s">
         <v>99</v>
@@ -6117,7 +6117,7 @@
         <v>38489</v>
       </c>
       <c r="B9" t="n">
-        <v>140213</v>
+        <v>171352</v>
       </c>
       <c r="C9" t="s">
         <v>108</v>
@@ -6192,7 +6192,7 @@
         <v>38489</v>
       </c>
       <c r="B10" t="n">
-        <v>140214</v>
+        <v>171353</v>
       </c>
       <c r="C10" t="s">
         <v>115</v>
@@ -6267,7 +6267,7 @@
         <v>38489</v>
       </c>
       <c r="B11" t="n">
-        <v>140215</v>
+        <v>171354</v>
       </c>
       <c r="C11" t="s">
         <v>122</v>
@@ -6332,7 +6332,7 @@
         <v>38489</v>
       </c>
       <c r="B12" t="n">
-        <v>140216</v>
+        <v>171355</v>
       </c>
       <c r="C12" t="s">
         <v>129</v>
@@ -6407,7 +6407,7 @@
         <v>38489</v>
       </c>
       <c r="B13" t="n">
-        <v>140217</v>
+        <v>171356</v>
       </c>
       <c r="C13" t="s">
         <v>136</v>
@@ -6543,7 +6543,7 @@
         <v>38489</v>
       </c>
       <c r="B15" t="n">
-        <v>140218</v>
+        <v>171357</v>
       </c>
       <c r="C15" t="s">
         <v>152</v>
@@ -6612,7 +6612,7 @@
         <v>38489</v>
       </c>
       <c r="B16" t="n">
-        <v>140219</v>
+        <v>171358</v>
       </c>
       <c r="C16" t="s">
         <v>161</v>
@@ -6758,7 +6758,7 @@
         <v>38489</v>
       </c>
       <c r="B18" t="n">
-        <v>140220</v>
+        <v>171359</v>
       </c>
       <c r="C18" t="s">
         <v>174</v>
@@ -6894,7 +6894,7 @@
         <v>38489</v>
       </c>
       <c r="B20" t="n">
-        <v>140221</v>
+        <v>171360</v>
       </c>
       <c r="C20" t="s">
         <v>192</v>
@@ -6959,7 +6959,7 @@
         <v>38489</v>
       </c>
       <c r="B21" t="n">
-        <v>140222</v>
+        <v>171361</v>
       </c>
       <c r="C21" t="s">
         <v>202</v>
@@ -7164,7 +7164,7 @@
         <v>38489</v>
       </c>
       <c r="B24" t="n">
-        <v>140223</v>
+        <v>171362</v>
       </c>
       <c r="C24" t="s">
         <v>224</v>
@@ -7298,7 +7298,7 @@
         <v>38489</v>
       </c>
       <c r="B26" t="n">
-        <v>140224</v>
+        <v>171363</v>
       </c>
       <c r="C26" t="s">
         <v>240</v>
@@ -7369,7 +7369,7 @@
         <v>38489</v>
       </c>
       <c r="B27" t="n">
-        <v>140225</v>
+        <v>171364</v>
       </c>
       <c r="C27" t="s">
         <v>250</v>
@@ -7434,7 +7434,7 @@
         <v>38489</v>
       </c>
       <c r="B28" t="n">
-        <v>140226</v>
+        <v>171365</v>
       </c>
       <c r="C28" t="s">
         <v>259</v>
@@ -7509,7 +7509,7 @@
         <v>38489</v>
       </c>
       <c r="B29" t="n">
-        <v>140227</v>
+        <v>171366</v>
       </c>
       <c r="C29" t="s">
         <v>265</v>
@@ -7578,7 +7578,7 @@
         <v>38489</v>
       </c>
       <c r="B30" t="n">
-        <v>140228</v>
+        <v>171367</v>
       </c>
       <c r="C30" t="s">
         <v>275</v>
@@ -7647,7 +7647,7 @@
         <v>38489</v>
       </c>
       <c r="B31" t="n">
-        <v>140229</v>
+        <v>171368</v>
       </c>
       <c r="C31" t="s">
         <v>284</v>
@@ -7718,7 +7718,7 @@
         <v>38489</v>
       </c>
       <c r="B32" t="n">
-        <v>140230</v>
+        <v>171369</v>
       </c>
       <c r="C32" t="s">
         <v>293</v>
@@ -7789,7 +7789,7 @@
         <v>38489</v>
       </c>
       <c r="B33" t="n">
-        <v>140231</v>
+        <v>171370</v>
       </c>
       <c r="C33" t="s">
         <v>302</v>
@@ -7860,7 +7860,7 @@
         <v>38489</v>
       </c>
       <c r="B34" t="n">
-        <v>140232</v>
+        <v>171371</v>
       </c>
       <c r="C34" t="s">
         <v>311</v>
@@ -7931,7 +7931,7 @@
         <v>38489</v>
       </c>
       <c r="B35" t="n">
-        <v>140233</v>
+        <v>171372</v>
       </c>
       <c r="C35" t="s">
         <v>320</v>
@@ -8000,7 +8000,7 @@
         <v>38489</v>
       </c>
       <c r="B36" t="n">
-        <v>140234</v>
+        <v>171373</v>
       </c>
       <c r="C36" t="s">
         <v>329</v>
@@ -8134,7 +8134,7 @@
         <v>38489</v>
       </c>
       <c r="B38" t="n">
-        <v>140235</v>
+        <v>171374</v>
       </c>
       <c r="C38" t="s">
         <v>346</v>
@@ -8274,7 +8274,7 @@
         <v>38489</v>
       </c>
       <c r="B40" t="n">
-        <v>140236</v>
+        <v>171375</v>
       </c>
       <c r="C40" t="s">
         <v>364</v>
@@ -8339,7 +8339,7 @@
         <v>38489</v>
       </c>
       <c r="B41" t="n">
-        <v>140237</v>
+        <v>171376</v>
       </c>
       <c r="C41" t="s">
         <v>371</v>
@@ -8408,7 +8408,7 @@
         <v>38489</v>
       </c>
       <c r="B42" t="n">
-        <v>140238</v>
+        <v>171377</v>
       </c>
       <c r="C42" t="s">
         <v>380</v>
@@ -8479,7 +8479,7 @@
         <v>38489</v>
       </c>
       <c r="B43" t="n">
-        <v>140239</v>
+        <v>171378</v>
       </c>
       <c r="C43" t="s">
         <v>390</v>
@@ -8621,7 +8621,7 @@
         <v>38489</v>
       </c>
       <c r="B45" t="n">
-        <v>140240</v>
+        <v>171379</v>
       </c>
       <c r="C45" t="s">
         <v>405</v>
@@ -8692,7 +8692,7 @@
         <v>38489</v>
       </c>
       <c r="B46" t="n">
-        <v>140241</v>
+        <v>171380</v>
       </c>
       <c r="C46" t="s">
         <v>415</v>
@@ -8761,7 +8761,7 @@
         <v>38489</v>
       </c>
       <c r="B47" t="n">
-        <v>140242</v>
+        <v>171381</v>
       </c>
       <c r="C47" t="s">
         <v>424</v>
@@ -8968,7 +8968,7 @@
         <v>38489</v>
       </c>
       <c r="B50" t="n">
-        <v>140243</v>
+        <v>171382</v>
       </c>
       <c r="C50" t="s">
         <v>450</v>
@@ -9033,7 +9033,7 @@
         <v>38489</v>
       </c>
       <c r="B51" t="n">
-        <v>140244</v>
+        <v>171383</v>
       </c>
       <c r="C51" t="s">
         <v>459</v>
@@ -9108,7 +9108,7 @@
         <v>38489</v>
       </c>
       <c r="B52" t="n">
-        <v>140245</v>
+        <v>144310</v>
       </c>
       <c r="C52" t="s">
         <v>468</v>
@@ -9173,7 +9173,7 @@
         <v>38489</v>
       </c>
       <c r="B53" t="n">
-        <v>140246</v>
+        <v>171384</v>
       </c>
       <c r="C53" t="s">
         <v>475</v>
@@ -9248,7 +9248,7 @@
         <v>38489</v>
       </c>
       <c r="B54" t="n">
-        <v>140247</v>
+        <v>171385</v>
       </c>
       <c r="C54" t="s">
         <v>484</v>
@@ -9319,7 +9319,7 @@
         <v>38489</v>
       </c>
       <c r="B55" t="n">
-        <v>140248</v>
+        <v>171386</v>
       </c>
       <c r="C55" t="s">
         <v>490</v>
@@ -9394,7 +9394,7 @@
         <v>38489</v>
       </c>
       <c r="B56" t="n">
-        <v>140249</v>
+        <v>171387</v>
       </c>
       <c r="C56" t="s">
         <v>499</v>
@@ -9459,7 +9459,7 @@
         <v>38489</v>
       </c>
       <c r="B57" t="n">
-        <v>140250</v>
+        <v>171388</v>
       </c>
       <c r="C57" t="s">
         <v>508</v>
@@ -9591,7 +9591,7 @@
         <v>38489</v>
       </c>
       <c r="B59" t="n">
-        <v>140251</v>
+        <v>171389</v>
       </c>
       <c r="C59" t="s">
         <v>524</v>
@@ -9735,7 +9735,7 @@
         <v>38489</v>
       </c>
       <c r="B61" t="n">
-        <v>140252</v>
+        <v>171390</v>
       </c>
       <c r="C61" t="s">
         <v>538</v>
@@ -9800,7 +9800,7 @@
         <v>38489</v>
       </c>
       <c r="B62" t="n">
-        <v>140253</v>
+        <v>171391</v>
       </c>
       <c r="C62" t="s">
         <v>544</v>
@@ -9869,7 +9869,7 @@
         <v>38489</v>
       </c>
       <c r="B63" t="n">
-        <v>140254</v>
+        <v>171392</v>
       </c>
       <c r="C63" t="s">
         <v>553</v>
@@ -10080,7 +10080,7 @@
         <v>38489</v>
       </c>
       <c r="B66" t="n">
-        <v>140255</v>
+        <v>171393</v>
       </c>
       <c r="C66" t="s">
         <v>575</v>
@@ -10226,7 +10226,7 @@
         <v>38489</v>
       </c>
       <c r="B68" t="n">
-        <v>140256</v>
+        <v>171394</v>
       </c>
       <c r="C68" t="s">
         <v>593</v>
@@ -10301,7 +10301,7 @@
         <v>38489</v>
       </c>
       <c r="B69" t="n">
-        <v>140257</v>
+        <v>171395</v>
       </c>
       <c r="C69" t="s">
         <v>602</v>
@@ -10376,7 +10376,7 @@
         <v>38489</v>
       </c>
       <c r="B70" t="n">
-        <v>140258</v>
+        <v>171396</v>
       </c>
       <c r="C70" t="s">
         <v>611</v>
@@ -10441,7 +10441,7 @@
         <v>38489</v>
       </c>
       <c r="B71" t="n">
-        <v>140259</v>
+        <v>171397</v>
       </c>
       <c r="C71" t="s">
         <v>620</v>
@@ -10512,7 +10512,7 @@
         <v>38489</v>
       </c>
       <c r="B72" t="n">
-        <v>140260</v>
+        <v>171398</v>
       </c>
       <c r="C72" t="s">
         <v>630</v>
@@ -10652,7 +10652,7 @@
         <v>38489</v>
       </c>
       <c r="B74" t="n">
-        <v>140261</v>
+        <v>171399</v>
       </c>
       <c r="C74" t="s">
         <v>649</v>
@@ -10721,7 +10721,7 @@
         <v>38489</v>
       </c>
       <c r="B75" t="n">
-        <v>140262</v>
+        <v>171400</v>
       </c>
       <c r="C75" t="s">
         <v>659</v>
@@ -10792,7 +10792,7 @@
         <v>38489</v>
       </c>
       <c r="B76" t="n">
-        <v>140263</v>
+        <v>171401</v>
       </c>
       <c r="C76" t="s">
         <v>668</v>
@@ -10863,7 +10863,7 @@
         <v>38489</v>
       </c>
       <c r="B77" t="n">
-        <v>140264</v>
+        <v>171402</v>
       </c>
       <c r="C77" t="s">
         <v>674</v>
@@ -10938,7 +10938,7 @@
         <v>38489</v>
       </c>
       <c r="B78" t="n">
-        <v>140265</v>
+        <v>171403</v>
       </c>
       <c r="C78" t="s">
         <v>683</v>
@@ -11013,7 +11013,7 @@
         <v>38489</v>
       </c>
       <c r="B79" t="n">
-        <v>140266</v>
+        <v>171404</v>
       </c>
       <c r="C79" t="s">
         <v>692</v>
@@ -11078,7 +11078,7 @@
         <v>38489</v>
       </c>
       <c r="B80" t="n">
-        <v>140267</v>
+        <v>171405</v>
       </c>
       <c r="C80" t="s">
         <v>698</v>
@@ -11147,7 +11147,7 @@
         <v>38489</v>
       </c>
       <c r="B81" t="n">
-        <v>140268</v>
+        <v>171406</v>
       </c>
       <c r="C81" t="s">
         <v>707</v>
@@ -11222,7 +11222,7 @@
         <v>38489</v>
       </c>
       <c r="B82" t="n">
-        <v>140269</v>
+        <v>171407</v>
       </c>
       <c r="C82" t="s">
         <v>714</v>
@@ -11297,7 +11297,7 @@
         <v>38489</v>
       </c>
       <c r="B83" t="n">
-        <v>140270</v>
+        <v>171408</v>
       </c>
       <c r="C83" t="s">
         <v>723</v>
@@ -11366,7 +11366,7 @@
         <v>38489</v>
       </c>
       <c r="B84" t="n">
-        <v>140271</v>
+        <v>171409</v>
       </c>
       <c r="C84" t="s">
         <v>732</v>
@@ -11516,7 +11516,7 @@
         <v>38489</v>
       </c>
       <c r="B86" t="n">
-        <v>140272</v>
+        <v>171410</v>
       </c>
       <c r="C86" t="s">
         <v>750</v>
@@ -11646,7 +11646,7 @@
         <v>38489</v>
       </c>
       <c r="B88" t="n">
-        <v>140273</v>
+        <v>171411</v>
       </c>
       <c r="C88" t="s">
         <v>766</v>
@@ -11721,7 +11721,7 @@
         <v>38489</v>
       </c>
       <c r="B89" t="n">
-        <v>140274</v>
+        <v>171412</v>
       </c>
       <c r="C89" t="s">
         <v>772</v>
@@ -11786,7 +11786,7 @@
         <v>38489</v>
       </c>
       <c r="B90" t="n">
-        <v>140275</v>
+        <v>171413</v>
       </c>
       <c r="C90" t="s">
         <v>781</v>
@@ -12149,7 +12149,7 @@
         <v>38489</v>
       </c>
       <c r="B95" t="n">
-        <v>140276</v>
+        <v>171414</v>
       </c>
       <c r="C95" t="s">
         <v>824</v>
@@ -12293,7 +12293,7 @@
         <v>38489</v>
       </c>
       <c r="B97" t="n">
-        <v>140277</v>
+        <v>171415</v>
       </c>
       <c r="C97" t="s">
         <v>842</v>
@@ -12435,7 +12435,7 @@
         <v>38489</v>
       </c>
       <c r="B99" t="n">
-        <v>140278</v>
+        <v>171416</v>
       </c>
       <c r="C99" t="s">
         <v>857</v>
@@ -12585,7 +12585,7 @@
         <v>38489</v>
       </c>
       <c r="B101" t="n">
-        <v>140279</v>
+        <v>171417</v>
       </c>
       <c r="C101" t="s">
         <v>872</v>
@@ -12660,7 +12660,7 @@
         <v>38489</v>
       </c>
       <c r="B102" t="n">
-        <v>140280</v>
+        <v>171418</v>
       </c>
       <c r="C102" t="s">
         <v>881</v>
@@ -12735,7 +12735,7 @@
         <v>38489</v>
       </c>
       <c r="B103" t="n">
-        <v>140281</v>
+        <v>171419</v>
       </c>
       <c r="C103" t="s">
         <v>890</v>
@@ -12800,7 +12800,7 @@
         <v>38489</v>
       </c>
       <c r="B104" t="n">
-        <v>140282</v>
+        <v>171420</v>
       </c>
       <c r="C104" t="s">
         <v>899</v>
@@ -12865,7 +12865,7 @@
         <v>38489</v>
       </c>
       <c r="B105" t="n">
-        <v>140283</v>
+        <v>171421</v>
       </c>
       <c r="C105" t="s">
         <v>908</v>
@@ -12940,7 +12940,7 @@
         <v>38489</v>
       </c>
       <c r="B106" t="n">
-        <v>140284</v>
+        <v>171422</v>
       </c>
       <c r="C106" t="s">
         <v>914</v>
@@ -13015,7 +13015,7 @@
         <v>38489</v>
       </c>
       <c r="B107" t="n">
-        <v>140285</v>
+        <v>171423</v>
       </c>
       <c r="C107" t="s">
         <v>924</v>
@@ -13090,7 +13090,7 @@
         <v>38489</v>
       </c>
       <c r="B108" t="n">
-        <v>140286</v>
+        <v>171424</v>
       </c>
       <c r="C108" t="s">
         <v>931</v>
@@ -13165,7 +13165,7 @@
         <v>38489</v>
       </c>
       <c r="B109" t="n">
-        <v>140287</v>
+        <v>171425</v>
       </c>
       <c r="C109" t="s">
         <v>937</v>
@@ -13240,7 +13240,7 @@
         <v>38489</v>
       </c>
       <c r="B110" t="n">
-        <v>140288</v>
+        <v>171426</v>
       </c>
       <c r="C110" t="s">
         <v>946</v>
@@ -13315,7 +13315,7 @@
         <v>38489</v>
       </c>
       <c r="B111" t="n">
-        <v>140289</v>
+        <v>171427</v>
       </c>
       <c r="C111" t="s">
         <v>955</v>
@@ -13390,7 +13390,7 @@
         <v>38489</v>
       </c>
       <c r="B112" t="n">
-        <v>140290</v>
+        <v>171428</v>
       </c>
       <c r="C112" t="s">
         <v>962</v>
@@ -13670,7 +13670,7 @@
         <v>38489</v>
       </c>
       <c r="B116" t="n">
-        <v>140291</v>
+        <v>171429</v>
       </c>
       <c r="C116" t="s">
         <v>990</v>
@@ -13745,7 +13745,7 @@
         <v>38489</v>
       </c>
       <c r="B117" t="n">
-        <v>140292</v>
+        <v>171430</v>
       </c>
       <c r="C117" t="s">
         <v>999</v>
@@ -13820,7 +13820,7 @@
         <v>38489</v>
       </c>
       <c r="B118" t="n">
-        <v>140293</v>
+        <v>171431</v>
       </c>
       <c r="C118" t="s">
         <v>1005</v>
@@ -13885,7 +13885,7 @@
         <v>38489</v>
       </c>
       <c r="B119" t="n">
-        <v>140294</v>
+        <v>171432</v>
       </c>
       <c r="C119" t="s">
         <v>1014</v>
@@ -14080,7 +14080,7 @@
         <v>38489</v>
       </c>
       <c r="B122" t="n">
-        <v>140295</v>
+        <v>171433</v>
       </c>
       <c r="C122" t="s">
         <v>1040</v>
@@ -14151,7 +14151,7 @@
         <v>38489</v>
       </c>
       <c r="B123" t="n">
-        <v>140296</v>
+        <v>171434</v>
       </c>
       <c r="C123" t="s">
         <v>1050</v>
@@ -14222,7 +14222,7 @@
         <v>38489</v>
       </c>
       <c r="B124" t="n">
-        <v>140297</v>
+        <v>171435</v>
       </c>
       <c r="C124" t="s">
         <v>1058</v>
@@ -14297,7 +14297,7 @@
         <v>38489</v>
       </c>
       <c r="B125" t="n">
-        <v>140298</v>
+        <v>171436</v>
       </c>
       <c r="C125" t="s">
         <v>1067</v>
@@ -14366,7 +14366,7 @@
         <v>38489</v>
       </c>
       <c r="B126" t="n">
-        <v>140299</v>
+        <v>171437</v>
       </c>
       <c r="C126" t="s">
         <v>1076</v>
@@ -14512,7 +14512,7 @@
         <v>38489</v>
       </c>
       <c r="B128" t="n">
-        <v>140300</v>
+        <v>171438</v>
       </c>
       <c r="C128" t="s">
         <v>1091</v>
@@ -14583,7 +14583,7 @@
         <v>38489</v>
       </c>
       <c r="B129" t="n">
-        <v>140301</v>
+        <v>171439</v>
       </c>
       <c r="C129" t="s">
         <v>1100</v>
@@ -14723,7 +14723,7 @@
         <v>38489</v>
       </c>
       <c r="B131" t="n">
-        <v>140302</v>
+        <v>171440</v>
       </c>
       <c r="C131" t="s">
         <v>1115</v>
@@ -14798,7 +14798,7 @@
         <v>38489</v>
       </c>
       <c r="B132" t="n">
-        <v>140303</v>
+        <v>171441</v>
       </c>
       <c r="C132" t="s">
         <v>1124</v>
@@ -14863,7 +14863,7 @@
         <v>38489</v>
       </c>
       <c r="B133" t="n">
-        <v>140304</v>
+        <v>171442</v>
       </c>
       <c r="C133" t="s">
         <v>1130</v>
@@ -14938,7 +14938,7 @@
         <v>38489</v>
       </c>
       <c r="B134" t="n">
-        <v>140305</v>
+        <v>171443</v>
       </c>
       <c r="C134" t="s">
         <v>1136</v>
@@ -15013,7 +15013,7 @@
         <v>38489</v>
       </c>
       <c r="B135" t="n">
-        <v>140306</v>
+        <v>171444</v>
       </c>
       <c r="C135" t="s">
         <v>1145</v>
@@ -15088,7 +15088,7 @@
         <v>38489</v>
       </c>
       <c r="B136" t="n">
-        <v>140307</v>
+        <v>171445</v>
       </c>
       <c r="C136" t="s">
         <v>1154</v>
@@ -15163,7 +15163,7 @@
         <v>38489</v>
       </c>
       <c r="B137" t="n">
-        <v>140308</v>
+        <v>171446</v>
       </c>
       <c r="C137" t="s">
         <v>1163</v>
@@ -15228,7 +15228,7 @@
         <v>38489</v>
       </c>
       <c r="B138" t="n">
-        <v>140309</v>
+        <v>171447</v>
       </c>
       <c r="C138" t="s">
         <v>1172</v>
@@ -15378,7 +15378,7 @@
         <v>38489</v>
       </c>
       <c r="B140" t="n">
-        <v>140310</v>
+        <v>171448</v>
       </c>
       <c r="C140" t="s">
         <v>1183</v>
@@ -15443,7 +15443,7 @@
         <v>38489</v>
       </c>
       <c r="B141" t="n">
-        <v>140311</v>
+        <v>171449</v>
       </c>
       <c r="C141" t="s">
         <v>1192</v>
@@ -15514,7 +15514,7 @@
         <v>38489</v>
       </c>
       <c r="B142" t="n">
-        <v>140312</v>
+        <v>171450</v>
       </c>
       <c r="C142" t="s">
         <v>1201</v>
@@ -15589,7 +15589,7 @@
         <v>38489</v>
       </c>
       <c r="B143" t="n">
-        <v>140313</v>
+        <v>146826</v>
       </c>
       <c r="C143" t="s">
         <v>1207</v>
@@ -15660,7 +15660,7 @@
         <v>38489</v>
       </c>
       <c r="B144" t="n">
-        <v>140314</v>
+        <v>171451</v>
       </c>
       <c r="C144" t="s">
         <v>1216</v>
@@ -15731,7 +15731,7 @@
         <v>38489</v>
       </c>
       <c r="B145" t="n">
-        <v>140315</v>
+        <v>171452</v>
       </c>
       <c r="C145" t="s">
         <v>1225</v>
@@ -15796,7 +15796,7 @@
         <v>38489</v>
       </c>
       <c r="B146" t="n">
-        <v>140316</v>
+        <v>171453</v>
       </c>
       <c r="C146" t="s">
         <v>1231</v>
@@ -15871,7 +15871,7 @@
         <v>38489</v>
       </c>
       <c r="B147" t="n">
-        <v>140317</v>
+        <v>171454</v>
       </c>
       <c r="C147" t="s">
         <v>1239</v>
@@ -15942,7 +15942,7 @@
         <v>38489</v>
       </c>
       <c r="B148" t="n">
-        <v>140318</v>
+        <v>171455</v>
       </c>
       <c r="C148" t="s">
         <v>1245</v>
@@ -16017,7 +16017,7 @@
         <v>38489</v>
       </c>
       <c r="B149" t="n">
-        <v>140319</v>
+        <v>171456</v>
       </c>
       <c r="C149" t="s">
         <v>1254</v>
@@ -16086,7 +16086,7 @@
         <v>38489</v>
       </c>
       <c r="B150" t="n">
-        <v>140320</v>
+        <v>171457</v>
       </c>
       <c r="C150" t="s">
         <v>1263</v>
@@ -16151,7 +16151,7 @@
         <v>38489</v>
       </c>
       <c r="B151" t="n">
-        <v>140321</v>
+        <v>171458</v>
       </c>
       <c r="C151" t="s">
         <v>1269</v>
@@ -16226,7 +16226,7 @@
         <v>38489</v>
       </c>
       <c r="B152" t="n">
-        <v>140322</v>
+        <v>171459</v>
       </c>
       <c r="C152" t="s">
         <v>1276</v>
@@ -16301,7 +16301,7 @@
         <v>38489</v>
       </c>
       <c r="B153" t="n">
-        <v>140323</v>
+        <v>171460</v>
       </c>
       <c r="C153" t="s">
         <v>1286</v>
@@ -16372,7 +16372,7 @@
         <v>38489</v>
       </c>
       <c r="B154" t="n">
-        <v>140324</v>
+        <v>171461</v>
       </c>
       <c r="C154" t="s">
         <v>1295</v>
@@ -16447,7 +16447,7 @@
         <v>38489</v>
       </c>
       <c r="B155" t="n">
-        <v>140325</v>
+        <v>171462</v>
       </c>
       <c r="C155" t="s">
         <v>1302</v>
@@ -16512,7 +16512,7 @@
         <v>38489</v>
       </c>
       <c r="B156" t="n">
-        <v>140326</v>
+        <v>171463</v>
       </c>
       <c r="C156" t="s">
         <v>1311</v>
@@ -16581,7 +16581,7 @@
         <v>38489</v>
       </c>
       <c r="B157" t="n">
-        <v>140327</v>
+        <v>171464</v>
       </c>
       <c r="C157" t="s">
         <v>1318</v>
@@ -16652,7 +16652,7 @@
         <v>38489</v>
       </c>
       <c r="B158" t="n">
-        <v>140328</v>
+        <v>171465</v>
       </c>
       <c r="C158" t="s">
         <v>1324</v>
@@ -16727,7 +16727,7 @@
         <v>38489</v>
       </c>
       <c r="B159" t="n">
-        <v>140329</v>
+        <v>171466</v>
       </c>
       <c r="C159" t="s">
         <v>1333</v>
@@ -16802,7 +16802,7 @@
         <v>38489</v>
       </c>
       <c r="B160" t="n">
-        <v>140330</v>
+        <v>171467</v>
       </c>
       <c r="C160" t="s">
         <v>1342</v>
@@ -16877,7 +16877,7 @@
         <v>38489</v>
       </c>
       <c r="B161" t="n">
-        <v>140331</v>
+        <v>171468</v>
       </c>
       <c r="C161" t="s">
         <v>1348</v>
@@ -16952,7 +16952,7 @@
         <v>38489</v>
       </c>
       <c r="B162" t="n">
-        <v>140332</v>
+        <v>171469</v>
       </c>
       <c r="C162" t="s">
         <v>1355</v>
@@ -17023,7 +17023,7 @@
         <v>38489</v>
       </c>
       <c r="B163" t="n">
-        <v>140333</v>
+        <v>171470</v>
       </c>
       <c r="C163" t="s">
         <v>1364</v>
@@ -17094,7 +17094,7 @@
         <v>38489</v>
       </c>
       <c r="B164" t="n">
-        <v>140334</v>
+        <v>171471</v>
       </c>
       <c r="C164" t="s">
         <v>1374</v>
@@ -17159,7 +17159,7 @@
         <v>38489</v>
       </c>
       <c r="B165" t="n">
-        <v>140335</v>
+        <v>171472</v>
       </c>
       <c r="C165" t="s">
         <v>1383</v>
@@ -17234,7 +17234,7 @@
         <v>38489</v>
       </c>
       <c r="B166" t="n">
-        <v>140336</v>
+        <v>171473</v>
       </c>
       <c r="C166" t="s">
         <v>1392</v>
@@ -17303,7 +17303,7 @@
         <v>38489</v>
       </c>
       <c r="B167" t="n">
-        <v>140337</v>
+        <v>171474</v>
       </c>
       <c r="C167" t="s">
         <v>1401</v>
@@ -17364,7 +17364,7 @@
         <v>38489</v>
       </c>
       <c r="B168" t="n">
-        <v>140338</v>
+        <v>171475</v>
       </c>
       <c r="C168" t="s">
         <v>1410</v>
@@ -17433,7 +17433,7 @@
         <v>38489</v>
       </c>
       <c r="B169" t="n">
-        <v>140339</v>
+        <v>171476</v>
       </c>
       <c r="C169" t="s">
         <v>1419</v>
@@ -17508,7 +17508,7 @@
         <v>38489</v>
       </c>
       <c r="B170" t="n">
-        <v>140340</v>
+        <v>171477</v>
       </c>
       <c r="C170" t="s">
         <v>1424</v>
@@ -17583,7 +17583,7 @@
         <v>38489</v>
       </c>
       <c r="B171" t="n">
-        <v>140341</v>
+        <v>171478</v>
       </c>
       <c r="C171" t="s">
         <v>1433</v>
@@ -17654,7 +17654,7 @@
         <v>38489</v>
       </c>
       <c r="B172" t="n">
-        <v>140342</v>
+        <v>171479</v>
       </c>
       <c r="C172" t="s">
         <v>1442</v>
@@ -17729,7 +17729,7 @@
         <v>38489</v>
       </c>
       <c r="B173" t="n">
-        <v>140343</v>
+        <v>171480</v>
       </c>
       <c r="C173" t="s">
         <v>1450</v>
@@ -17930,7 +17930,7 @@
         <v>38489</v>
       </c>
       <c r="B176" t="n">
-        <v>140344</v>
+        <v>171481</v>
       </c>
       <c r="C176" t="s">
         <v>1474</v>
@@ -18003,7 +18003,7 @@
         <v>38489</v>
       </c>
       <c r="B177" t="n">
-        <v>140345</v>
+        <v>171482</v>
       </c>
       <c r="C177" t="s">
         <v>1483</v>
@@ -18078,7 +18078,7 @@
         <v>38489</v>
       </c>
       <c r="B178" t="n">
-        <v>140346</v>
+        <v>171483</v>
       </c>
       <c r="C178" t="s">
         <v>1492</v>
@@ -18149,7 +18149,7 @@
         <v>38489</v>
       </c>
       <c r="B179" t="n">
-        <v>140347</v>
+        <v>171484</v>
       </c>
       <c r="C179" t="s">
         <v>1501</v>
@@ -18289,7 +18289,7 @@
         <v>38489</v>
       </c>
       <c r="B181" t="n">
-        <v>140348</v>
+        <v>171485</v>
       </c>
       <c r="C181" t="s">
         <v>1517</v>
@@ -18350,7 +18350,7 @@
         <v>38489</v>
       </c>
       <c r="B182" t="n">
-        <v>140349</v>
+        <v>171486</v>
       </c>
       <c r="C182" t="s">
         <v>1523</v>
@@ -18486,7 +18486,7 @@
         <v>38489</v>
       </c>
       <c r="B184" t="n">
-        <v>140350</v>
+        <v>171487</v>
       </c>
       <c r="C184" t="s">
         <v>1538</v>
@@ -18561,7 +18561,7 @@
         <v>38489</v>
       </c>
       <c r="B185" t="n">
-        <v>140351</v>
+        <v>171488</v>
       </c>
       <c r="C185" t="s">
         <v>1547</v>
@@ -18711,7 +18711,7 @@
         <v>38489</v>
       </c>
       <c r="B187" t="n">
-        <v>140352</v>
+        <v>171489</v>
       </c>
       <c r="C187" t="s">
         <v>1565</v>
@@ -18776,7 +18776,7 @@
         <v>38489</v>
       </c>
       <c r="B188" t="n">
-        <v>140353</v>
+        <v>171490</v>
       </c>
       <c r="C188" t="s">
         <v>1572</v>
@@ -18851,7 +18851,7 @@
         <v>38489</v>
       </c>
       <c r="B189" t="n">
-        <v>140354</v>
+        <v>171491</v>
       </c>
       <c r="C189" t="s">
         <v>1581</v>
@@ -18916,7 +18916,7 @@
         <v>38489</v>
       </c>
       <c r="B190" t="n">
-        <v>140355</v>
+        <v>171492</v>
       </c>
       <c r="C190" t="s">
         <v>1590</v>
@@ -18987,7 +18987,7 @@
         <v>38489</v>
       </c>
       <c r="B191" t="n">
-        <v>140356</v>
+        <v>171493</v>
       </c>
       <c r="C191" t="s">
         <v>1599</v>
@@ -19062,7 +19062,7 @@
         <v>38489</v>
       </c>
       <c r="B192" t="n">
-        <v>140357</v>
+        <v>171494</v>
       </c>
       <c r="C192" t="s">
         <v>1609</v>
@@ -19127,7 +19127,7 @@
         <v>38489</v>
       </c>
       <c r="B193" t="n">
-        <v>140358</v>
+        <v>171495</v>
       </c>
       <c r="C193" t="s">
         <v>1616</v>
@@ -19202,7 +19202,7 @@
         <v>38489</v>
       </c>
       <c r="B194" t="n">
-        <v>140359</v>
+        <v>171496</v>
       </c>
       <c r="C194" t="s">
         <v>1625</v>
@@ -19277,7 +19277,7 @@
         <v>38489</v>
       </c>
       <c r="B195" t="n">
-        <v>140360</v>
+        <v>171497</v>
       </c>
       <c r="C195" t="s">
         <v>1634</v>
@@ -19352,7 +19352,7 @@
         <v>38489</v>
       </c>
       <c r="B196" t="n">
-        <v>140361</v>
+        <v>171498</v>
       </c>
       <c r="C196" t="s">
         <v>1640</v>
@@ -19427,7 +19427,7 @@
         <v>38489</v>
       </c>
       <c r="B197" t="n">
-        <v>140362</v>
+        <v>171499</v>
       </c>
       <c r="C197" t="s">
         <v>1649</v>
@@ -19502,7 +19502,7 @@
         <v>38489</v>
       </c>
       <c r="B198" t="n">
-        <v>140363</v>
+        <v>171500</v>
       </c>
       <c r="C198" t="s">
         <v>1658</v>
@@ -19571,7 +19571,7 @@
         <v>38489</v>
       </c>
       <c r="B199" t="n">
-        <v>140364</v>
+        <v>171501</v>
       </c>
       <c r="C199" t="s">
         <v>1667</v>
@@ -19646,7 +19646,7 @@
         <v>38489</v>
       </c>
       <c r="B200" t="n">
-        <v>140365</v>
+        <v>171502</v>
       </c>
       <c r="C200" t="s">
         <v>1673</v>
@@ -19717,7 +19717,7 @@
         <v>38489</v>
       </c>
       <c r="B201" t="n">
-        <v>140366</v>
+        <v>171503</v>
       </c>
       <c r="C201" t="s">
         <v>1682</v>
@@ -19792,7 +19792,7 @@
         <v>38489</v>
       </c>
       <c r="B202" t="n">
-        <v>140367</v>
+        <v>171504</v>
       </c>
       <c r="C202" t="s">
         <v>1689</v>
